--- a/Теория вероятностей. Решение задач/КТ2/Решения с Excel.xlsx
+++ b/Теория вероятностей. Решение задач/КТ2/Решения с Excel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\КТ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1AAD5C-E595-4AE1-A6D4-EF3E8D518CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A511782A-9C6A-4DBE-A728-318A834BCCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Номер 1 Биномиальное" sheetId="1" r:id="rId1"/>
-    <sheet name="Пуассоновское" sheetId="2" r:id="rId2"/>
-    <sheet name="Геометрическое" sheetId="3" r:id="rId3"/>
+    <sheet name="Номер 3 б Биномиальное" sheetId="4" r:id="rId1"/>
+    <sheet name="Номер 1 Биномиальное" sheetId="1" r:id="rId2"/>
+    <sheet name="Пуассоновское" sheetId="2" r:id="rId3"/>
+    <sheet name="Геометрическое" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Статья руководство</t>
   </si>
@@ -75,6 +76,12 @@
   </si>
   <si>
     <t>m - число удачных исходов</t>
+  </si>
+  <si>
+    <t>Задача 3</t>
+  </si>
+  <si>
+    <t>n - число экспериментов (Налёты Соловья)</t>
   </si>
 </sst>
 </file>
@@ -82,8 +89,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000000000E+00"/>
-    <numFmt numFmtId="198" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -139,15 +146,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -166,6 +174,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B45880E-0C38-4D0D-929D-8855DDD09679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2152650"/>
+          <a:ext cx="4048125" cy="1484313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -476,11 +533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEA3132-99E4-4F37-A298-FF3A43C00956}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,13 +562,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -533,7 +590,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -547,135 +604,75 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4">
+        <f>_xlfn.BINOM.DIST(B21,A21,C21,FALSE)</f>
         <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0.25</v>
-      </c>
-      <c r="D21" s="5">
-        <f>_xlfn.BINOM.DIST(B21,A21,C21,FALSE)</f>
-        <v>0.13348388671875</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0.25</v>
-      </c>
-      <c r="D22" s="5">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4">
         <f t="shared" ref="D22:D28" si="0">_xlfn.BINOM.DIST(B22,A22,C22,FALSE)</f>
-        <v>0.31146240234375006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>0.25</v>
-      </c>
-      <c r="D23" s="5">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>0.31146240234375006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>0.25</v>
-      </c>
-      <c r="D24" s="5">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
-        <v>0.17303466796875006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>0.25</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" si="0"/>
-        <v>5.7678222656250028E-2</v>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6">
+        <f>SUM(D21:D24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>0.25</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1535644531250009E-2</v>
-      </c>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>0.25</v>
-      </c>
-      <c r="D27" s="5">
-        <f t="shared" si="0"/>
-        <v>1.2817382812500002E-3</v>
-      </c>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>0.25</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" si="0"/>
-        <v>6.1035156250000027E-5</v>
-      </c>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1">
-        <f>SUM(D21:D28)</f>
-        <v>1.0000000000000002</v>
-      </c>
+      <c r="D29" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="4"/>
+      <c r="D32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -687,18 +684,277 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266EB364-6D71-4CAB-B8F8-9B30CB3C6C42}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="4">
+        <f>_xlfn.BINOM.DIST(B21,A21,C21,FALSE)</f>
+        <v>0.13348388671875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ref="D22:D28" si="0">_xlfn.BINOM.DIST(B22,A22,C22,FALSE)</f>
+        <v>0.31146240234375006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31146240234375006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>0.25</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.17303466796875006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>0.25</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>5.7678222656250028E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1535644531250009E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>0.25</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2817382812500002E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>0.25</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>6.1035156250000027E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
+        <f>SUM(D21:D28)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266EB364-6D71-4CAB-B8F8-9B30CB3C6C42}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A228A0DB-4A57-40B0-B192-6FA6E7F424E8}">
   <dimension ref="A1"/>
   <sheetViews>
